--- a/Data Quality/DQ Profiles/Columnar Discovery Profile - mdmdb_Reporting_MDM_Assets.xlsx
+++ b/Data Quality/DQ Profiles/Columnar Discovery Profile - mdmdb_Reporting_MDM_Assets.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9687d4e15319f38a/Work Files/Key Energy/Key-EDW/Data Quality/DQ Profiles/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F6E675524BC722091061005C784339F02102AB81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B661009-6EA0-4507-8521-3F569A5CFA8F}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27311"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_F6E675524BC722091061005C784339F02102AB81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CC20D12-F986-423B-BBAE-04868695B277}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reporting_MDM_Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$O$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reporting_MDM_Assets!$A$1:$O$48</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -550,7 +561,7 @@
     <t>44</t>
   </si>
   <si>
-    <t>work_order</t>
+    <t xml:space="preserve">work_order </t>
   </si>
   <si>
     <t>45</t>
@@ -578,16 +589,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -608,12 +612,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -622,8 +641,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,2315 +960,2294 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:15" hidden="1">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J2" s="1">
-        <v>62123</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="I2" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J2" s="2">
+        <v>62123</v>
+      </c>
+      <c r="K2" s="2">
         <v>100</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J3" s="1">
-        <v>62123</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="I3" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J3" s="2">
+        <v>62123</v>
+      </c>
+      <c r="K3" s="2">
         <v>100</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J4" s="2">
         <v>1545</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>2.4900000000000002</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>39</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>0.06</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J5" s="2">
         <v>66</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>0.11</v>
       </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="1:15">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J6" s="2">
         <v>799</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>1.29</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>4958</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>7.98</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    <row r="7" spans="1:15">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J7" s="2">
         <v>13609</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <v>21.91</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>11053</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>17.79</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J8" s="2">
         <v>427</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>0.69</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>18968</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>30.53</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    <row r="9" spans="1:15">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J9" s="2">
         <v>549</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <v>0.88</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>10457</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <v>16.829999999999998</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J10" s="2">
         <v>40249</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>64.790000000000006</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>19914</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <v>32.06</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    <row r="11" spans="1:15">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J11" s="1">
-        <v>17</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="I11" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J11" s="2">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2">
         <v>0.03</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <v>1</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    <row r="12" spans="1:15">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I12" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J12" s="2">
         <v>18</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <v>0.03</v>
       </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J13" s="2">
         <v>2</v>
       </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
+    <row r="14" spans="1:15" hidden="1">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J14" s="2">
         <v>2</v>
       </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
+    <row r="15" spans="1:15" hidden="1">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J15" s="2">
         <v>2</v>
       </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    <row r="16" spans="1:15">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J16" s="2">
         <v>1917</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <v>3.09</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
         <v>52419</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
         <v>84.38</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1" t="s">
+    <row r="17" spans="1:15">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="F17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J17" s="2">
         <v>2</v>
       </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
         <v>46881</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="2">
         <v>75.459999999999994</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
+    <row r="18" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="F18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J18" s="2">
         <v>457</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <v>0.74</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="2">
         <v>13</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="2">
         <v>0.02</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="F19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J19" s="2">
         <v>448</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="2">
         <v>0.72</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="2">
         <v>13</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="2">
         <v>0.02</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="F20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J20" s="2">
         <v>294</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <v>0.47</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="2">
         <v>13</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="2">
         <v>0.02</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
+    <row r="21" spans="1:15">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="F21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="I21" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J21" s="2">
         <v>294</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <v>0.47</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="2">
         <v>13</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="2">
         <v>0.02</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="F22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J22" s="2">
         <v>13</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <v>0.02</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="2">
         <v>13</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="2">
         <v>0.02</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1" t="s">
+    <row r="23" spans="1:15">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="F23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J23" s="2">
         <v>13</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
         <v>0.02</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="2">
         <v>13</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="2">
         <v>0.02</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
+    <row r="24" spans="1:15">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="F24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J24" s="2">
         <v>34</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
         <v>0.05</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="2">
         <v>13</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="2">
         <v>0.02</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="1" t="s">
+    <row r="25" spans="1:15">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="F25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J25" s="2">
         <v>34</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="2">
         <v>0.05</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="2">
         <v>13</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="2">
         <v>0.02</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1" t="s">
+    <row r="26" spans="1:15">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="F26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J26" s="2">
         <v>10</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="2">
         <v>0.02</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="2">
         <v>13</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="2">
         <v>0.02</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
+    <row r="27" spans="1:15">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="F27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I27" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J27" s="2">
         <v>10</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="2">
         <v>0.02</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="2">
         <v>13</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="2">
         <v>0.02</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1" t="s">
+    <row r="28" spans="1:15">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="F28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J28" s="2">
         <v>271</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="2">
         <v>0.44</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="2">
         <v>13</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="2">
         <v>0.02</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    <row r="29" spans="1:15">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="F29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J29" s="2">
         <v>271</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="2">
         <v>0.44</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="2">
         <v>13</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="2">
         <v>0.02</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="1" t="s">
+    <row r="30" spans="1:15">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="F30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I30" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J30" s="2">
         <v>48</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="2">
         <v>0.08</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="2">
         <v>13</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="2">
         <v>0.02</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="1" t="s">
+    <row r="31" spans="1:15">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="F31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I31" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J31" s="2">
         <v>48</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="2">
         <v>0.08</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="2">
         <v>13</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="2">
         <v>0.02</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1" t="s">
+    <row r="32" spans="1:15">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="F32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I32" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J32" s="2">
         <v>456</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="2">
         <v>0.73</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="2">
         <v>50</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="2">
         <v>0.08</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="1" t="s">
+    <row r="33" spans="1:15">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="F33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I33" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J33" s="2">
         <v>448</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="2">
         <v>0.72</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="2">
         <v>50</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="2">
         <v>0.08</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="1" t="s">
+    <row r="34" spans="1:15">
+      <c r="A34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="F34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I34" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J34" s="2">
         <v>30</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="2">
         <v>0.05</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="2">
         <v>61390</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="2">
         <v>98.82</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O34" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="1" t="s">
+    <row r="35" spans="1:15">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="F35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J35" s="2">
         <v>26</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="2">
         <v>0.04</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="2">
         <v>61878</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="2">
         <v>99.61</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O35" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="1" t="s">
+    <row r="36" spans="1:15">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="F36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I36" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J36" s="2">
         <v>1</v>
       </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
         <v>62122</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="2">
         <v>100</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O36" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="1" t="s">
+    <row r="37" spans="1:15">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="F37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J37" s="2">
         <v>5337</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="2">
         <v>8.59</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="2">
         <v>56702</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="2">
         <v>91.27</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="O37" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="1" t="s">
+    <row r="38" spans="1:15">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="F38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J38" s="2">
         <v>8</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="2">
         <v>0.01</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="2">
         <v>59944</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="2">
         <v>96.49</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="N38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="1" t="s">
+    <row r="39" spans="1:15" hidden="1">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="F39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J39" s="1">
+      <c r="I39" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J39" s="2">
         <v>68</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="2">
         <v>0.11</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="2">
         <v>61570</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="2">
         <v>99.11</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O39" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="1" t="s">
+    <row r="40" spans="1:15" hidden="1">
+      <c r="A40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="F40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J40" s="1">
+      <c r="I40" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J40" s="2">
         <v>2</v>
       </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1" t="s">
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="1" t="s">
+    <row r="41" spans="1:15" hidden="1">
+      <c r="A41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="F41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I41" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J41" s="1">
+      <c r="I41" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J41" s="2">
         <v>2</v>
       </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1" t="s">
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="1" t="s">
+    <row r="42" spans="1:15" hidden="1">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="F42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="I42" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J42" s="2">
         <v>2</v>
       </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0</v>
-      </c>
-      <c r="N42" s="1" t="s">
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O42" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="1" t="s">
+    <row r="43" spans="1:15" hidden="1">
+      <c r="A43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="F43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J43" s="1">
+      <c r="I43" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J43" s="2">
         <v>2</v>
       </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0</v>
-      </c>
-      <c r="N43" s="1" t="s">
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O43" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="1" t="s">
+    <row r="44" spans="1:15" hidden="1">
+      <c r="A44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="F44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I44" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J44" s="1">
+      <c r="I44" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J44" s="2">
         <v>2</v>
       </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1" t="s">
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="1" t="s">
+    <row r="45" spans="1:15" hidden="1">
+      <c r="A45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="F45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J45" s="1">
+      <c r="I45" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J45" s="2">
         <v>2</v>
       </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1" t="s">
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="1" t="s">
+    <row r="46" spans="1:15">
+      <c r="A46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="F46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I46" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J46" s="1">
+      <c r="I46" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J46" s="2">
         <v>2</v>
       </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1" t="s">
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O46" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="1" t="s">
+    <row r="47" spans="1:15" hidden="1">
+      <c r="A47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="F47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J47" s="1">
+      <c r="I47" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J47" s="2">
         <v>1</v>
       </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
-      <c r="N47" s="1" t="s">
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="O47" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="1" t="s">
+    <row r="48" spans="1:15" hidden="1">
+      <c r="A48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="F48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="1">
-        <v>62123</v>
-      </c>
-      <c r="J48" s="1">
+      <c r="I48" s="2">
+        <v>62123</v>
+      </c>
+      <c r="J48" s="2">
         <v>1</v>
       </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
-      <c r="M48" s="1">
-        <v>0</v>
-      </c>
-      <c r="N48" s="1" t="s">
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="O48" s="2" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O48" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="10">
+    <filterColumn colId="6">
       <filters>
-        <filter val="0"/>
-        <filter val="0.01"/>
-        <filter val="0.02"/>
-        <filter val="0.03"/>
-        <filter val="0.04"/>
-        <filter val="0.05"/>
-        <filter val="0.08"/>
-        <filter val="0.11"/>
-        <filter val="0.44"/>
-        <filter val="0.47"/>
-        <filter val="0.69"/>
-        <filter val="0.72"/>
-        <filter val="0.73"/>
-        <filter val="0.74"/>
-        <filter val="0.88"/>
-        <filter val="1.29"/>
-        <filter val="2.49"/>
-        <filter val="21.91"/>
-        <filter val="3.09"/>
-        <filter val="64.79"/>
-        <filter val="8.59"/>
+        <filter val="nvarchar"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>